--- a/test_data/cai/smoke_test_data.xlsx
+++ b/test_data/cai/smoke_test_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="460" windowWidth="24560" windowHeight="13540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1040" yWindow="460" windowWidth="24560" windowHeight="13540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="生成劳务表" sheetId="10" r:id="rId11"/>
     <sheet name="工作表10" sheetId="11" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="208">
   <si>
     <t>用户名</t>
     <rPh sb="0" eb="1">
@@ -79,32 +79,6 @@
   </si>
   <si>
     <t>qq123456</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>qq123456</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>助理登录，创建按钮不可见</t>
-    <rPh sb="0" eb="1">
-      <t>zhu li</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>deng lu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>chuang jian</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>an n</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>bu</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ke jian</t>
-    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1427,6 +1401,218 @@
   </si>
   <si>
     <t>否</t>
+  </si>
+  <si>
+    <t>帐套名称0</t>
+    <rPh sb="0" eb="1">
+      <t>zhang tao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mign c</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法定个代表人1</t>
+    <rPh sb="0" eb="1">
+      <t>fa din</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>g dai biao r</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册资本2</t>
+    <rPh sb="0" eb="1">
+      <t>zhu ce</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi ben</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>省3</t>
+    <rPh sb="0" eb="1">
+      <t>sheng fen</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>市4</t>
+    <rPh sb="0" eb="1">
+      <t>shi qu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区5</t>
+    <rPh sb="0" eb="1">
+      <t>qu yu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成立日期－年6</t>
+    <rPh sb="0" eb="1">
+      <t>cheng li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ri qi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>nian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成立日期－月7</t>
+    <rPh sb="0" eb="1">
+      <t>cheng li ri q</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yue</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成立日期－日8</t>
+    <rPh sb="0" eb="1">
+      <t>cheng li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ri qi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ri</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>税号9</t>
+    <rPh sb="0" eb="1">
+      <t>shui hao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业10</t>
+    <rPh sb="0" eb="1">
+      <t>hang ye</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帐套性质11</t>
+    <rPh sb="0" eb="1">
+      <t>zhang tao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xing zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用帐套日期（一月）12</t>
+    <rPh sb="0" eb="1">
+      <t>qi yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang tao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ri qi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yi yue</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试场景13</t>
+    <rPh sb="0" eb="1">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chang j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果14</t>
+    <rPh sb="0" eb="1">
+      <t>jie guo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒烟测试帐套</t>
+    <rPh sb="0" eb="1">
+      <t>mao yan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ce s</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhang tao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境</t>
+    <rPh sb="0" eb="1">
+      <t>huan jing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1qazxsw2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qq123456</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄彩艳</t>
+    <rPh sb="0" eb="1">
+      <t>huang cai yan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性质</t>
+    <rPh sb="0" eb="1">
+      <t>xing zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小规模</t>
+    <rPh sb="0" eb="1">
+      <t>xiao gui mo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般纳税人</t>
+    <rPh sb="0" eb="1">
+      <t>yi ban na shui r</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1436,9 +1622,9 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;¥&quot;* #,##0.00_);_(&quot;¥&quot;* \(#,##0.00\);_(&quot;¥&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1515,6 +1701,14 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1571,7 +1765,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1605,13 +1799,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1891,10 +2086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1904,7 +2099,7 @@
     <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1917,33 +2112,55 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="E1" s="27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
         <v>13683139989</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="E2" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>13683139989</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
         <v>18612198503</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -1993,14 +2210,94 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+      <c r="P2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2010,7 +2307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -2040,135 +2337,135 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
       </c>
       <c r="F2" s="4">
         <v>100.11</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
         <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
       </c>
       <c r="F3" s="4">
         <v>200.23</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" s="4">
         <v>300.35000000000002</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" s="4">
         <v>400.47</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2198,147 +2495,147 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
       </c>
       <c r="F2" s="5">
         <v>901.07</v>
       </c>
       <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
         <v>38</v>
-      </c>
-      <c r="H2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F3" s="5">
         <v>1001.19</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F4" s="5">
         <v>1101.31</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F5" s="5">
         <v>1201.43</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2363,340 +2660,340 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E2" s="6">
         <v>2703.23</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="6">
         <v>2803.35</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="6">
         <v>2903.47</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5" s="6">
         <v>3003.59</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" s="6">
         <v>3103.71</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" s="6">
         <v>3203.83</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
       </c>
       <c r="E8" s="6">
         <v>3303.95</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9" s="6">
         <v>3404.07</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E10" s="6">
         <v>3504.19</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
       </c>
       <c r="E11" s="6">
         <v>3604.31</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E12" s="6">
         <v>3704.43</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13" s="6">
         <v>3804.55</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I13" s="6">
         <f>SUM(E2:E13)</f>
@@ -2725,165 +3022,165 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="11">
         <v>100.22</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>89</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="11">
         <v>200.33</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H4" s="11">
         <v>4004.51</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H5" s="11">
         <v>4104.62</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2914,202 +3211,202 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="H1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H2" s="12">
         <v>7308.14</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>111</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>116</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>118</v>
       </c>
       <c r="H3" s="12">
         <v>7808.69</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H4" s="12">
         <v>7908.8</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H5" s="12">
         <v>8008.91</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H6" s="12">
         <v>8909.8999999999905</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3134,109 +3431,109 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="I1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="L1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="AJ1" s="27" t="s">
         <v>3</v>
@@ -3244,26 +3541,26 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C2" s="22" t="str">
         <f>IF(B2&lt;&gt;"","中国","")</f>
         <v>中国</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="12"/>
       <c r="I2" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J2" s="22" t="str">
         <f>IF(B2&lt;&gt;"","是","")</f>
@@ -3320,28 +3617,28 @@
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="D3" s="23" t="s">
         <v>171</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>173</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="12"/>
       <c r="I3" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
@@ -3394,26 +3691,26 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C4" s="22" t="str">
         <f>IF(B4&lt;&gt;"","中国","")</f>
         <v>中国</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="12"/>
       <c r="I4" s="26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J4" s="22" t="str">
         <f>IF(B4&lt;&gt;"","是","")</f>
@@ -3470,29 +3767,29 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C5" s="22" t="str">
         <f>IF(B5&lt;&gt;"","中国","")</f>
         <v>中国</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="12"/>
       <c r="I5" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
